--- a/test.xlsx
+++ b/test.xlsx
@@ -452,11 +452,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>12317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Increase the Penalty of Cruelty to Animals in the Animal Protection Law</t>
+          <t>Increased the punishment of animal abuse in the animal protection law</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,11 +470,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>6020</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Please support bookkeepers to be called tax collectors!</t>
+          <t>Please support the book with the name tax, please support the book of the taxi!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -488,11 +488,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>11661</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Those who commit medical violence should make a note in the health insurance system, and if the circumstances are serious, they should be deprived of corresponding health insurance rights</t>
+          <t>Those who implement medical violence shall noted the health insurance system.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -506,11 +506,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2674</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Added criminal law punishment methods for drunk driving recidivism, sexual assault and harm to young children, etc. Increased whipping system</t>
+          <t>Add criminal law punishment systems such as drunk driving, sexual assault, and injury to young children to increase the whipping system</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -524,110 +524,110 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>18361</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Changed childcare allowance from 0-2 years old to 0-6 years old</t>
+          <t>Those who have disabled child abuse increase the criminal responsibility; the only death penalty to the death of child abuse.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>將育兒津貼從0～2歲改成0～6歲</t>
+          <t>虐童致殘者，加重刑責；虐童致死者，唯一死刑。</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17140</v>
+        <v>30432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>18083</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regarding the quasi-public policy, please directly subsidize parents 6,000 yuan for children aged 0-2 years old!!</t>
+          <t>Two -dimensional creation (virtual product, picture) appropriateness that is limited by the regulations of the small sex exploitation regulations</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>有關準公共化政策0-2歲家外送托，請直接補助家長6000元!!</t>
+          <t>二次元創作(虛擬產物、圖畫)受兒少性剝削條例規範限制的適切性</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13575</v>
+        <v>20067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>3096</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shelters in counties and cities should control the number of animals adopted by animal adopters and follow-up follow-up</t>
+          <t>Change the parenting allowance from 0 to 2 years old to 0 to 6 years old</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>各縣市收容所應對動物領養人做領養動物之數量管控與後續追蹤</t>
+          <t>將育兒津貼從0～2歲改成0～6歲</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12903</v>
+        <v>17140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>5907</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parents of young children across the country call on President Tsai to implement the policy of "double subsidy for children aged 0-6" in 2021</t>
+          <t>Regarding the quasi-public policy policy 0-2 years old, please subsidize 6,000 yuan directly !!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 全國幼兒家長呼籲蔡總統2021年落實「0-6歲育兒津貼加倍補助」政策</t>
+          <t>有關準公共化政策0-2歲家外送托，請直接補助家長6000元!!</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11306</v>
+        <v>13575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>5214</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Add a specification in [Electronic Invoice Implementation Operation Points] to prohibit it from using or optionally printing out commodity discounts</t>
+          <t>Each county and cities should be controlled by the number of animal adopters to adopt animals and follow -up tracking</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>在[電子發票實施作業要點] 加入規範，禁止它用或可選擇的印出商品優惠</t>
+          <t>各縣市收容所應對動物領養人做領養動物之數量管控與後續追蹤</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11232</v>
+        <v>12903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>19473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Abolish health and welfare donations for tobacco products and return to the normal tax system of modern countries</t>
+          <t>Together to promote the equality of medical care, support the Minister of Health and Welfare Qiu Taiyuan to implement the "Phase 2 of Optimizing the Plan of the Township Medical Progress"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>廢除菸品健康福利捐，回歸現代國家正常稅制</t>
+          <t>共同推動偏鄉醫療平權，支持衛福部長邱泰源儘速施行「優化偏鄉醫療精進計畫第二期」</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10710</v>
+        <v>12334</v>
       </c>
     </row>
   </sheetData>
